--- a/loaded_influencer_data/nlm25x/nlm25x_video.xlsx
+++ b/loaded_influencer_data/nlm25x/nlm25x_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,819 +506,819 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@nlm25x/photo/7489796774526274838</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>721</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>#fyp #londonlife #girlsday #ugc</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0.8321775312066574</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.8321775312066574</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.1386962552011096</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nlm25x/photo/7482741906699570454</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>5102</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="B3" t="n">
+        <v>5111</v>
+      </c>
+      <c r="C3" t="n">
         <v>423</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>12</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>19</v>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>20</v>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>#plog #ditl #vlog #devon</t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>8.526068208545668</v>
-      </c>
-      <c r="I2" t="n">
-        <v>8.290866326930615</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.2352018816150529</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.3724029792238338</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="H3" t="n">
+        <v>8.511054588143221</v>
+      </c>
+      <c r="I3" t="n">
+        <v>8.276266875366856</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.2347877127763647</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.3913128546272745</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="inlineStr">
         <is>
           <t>2025-03-17</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nlm25x/video/7479892253339700502</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>8449</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1926</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="B4" t="n">
+        <v>8463</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1927</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
         <v>54</v>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>The best day
 #sidemen #sidemencharitymatch #joeweller #youtubers</t>
         </is>
       </c>
-      <c r="H3" t="n">
-        <v>22.79559711208427</v>
-      </c>
-      <c r="I3" t="n">
-        <v>22.79559711208427</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.639128890993017</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="inlineStr">
+      <c r="H4" t="n">
+        <v>22.76970341486471</v>
+      </c>
+      <c r="I4" t="n">
+        <v>22.76970341486471</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.6380716058135413</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="inlineStr">
         <is>
           <t>2025-03-10</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nlm25x/photo/7477284442176752918</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>3051</v>
-      </c>
-      <c r="C4" t="n">
+      <c r="B5" t="n">
+        <v>3057</v>
+      </c>
+      <c r="C5" t="n">
         <v>377</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>7</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>9</v>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Spring is good for the soul
 #spring #ditlvlog #grwm</t>
         </is>
       </c>
-      <c r="H4" t="n">
-        <v>12.58603736479843</v>
-      </c>
-      <c r="I4" t="n">
-        <v>12.35660439200262</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.2294329727958047</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.2949852507374631</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="inlineStr">
+      <c r="H5" t="n">
+        <v>12.56133464180569</v>
+      </c>
+      <c r="I5" t="n">
+        <v>12.33235197906444</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.2289826627412496</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.2944062806673209</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
         <is>
           <t>2025-03-03</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nlm25x/photo/7476861968104705302</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>5874</v>
-      </c>
-      <c r="C5" t="n">
+      <c r="B6" t="n">
+        <v>5876</v>
+      </c>
+      <c r="C6" t="n">
         <v>918</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>10</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
         <v>53</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>#teamwork</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>15.79843377596186</v>
-      </c>
-      <c r="I5" t="n">
-        <v>15.62819203268641</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.1702417432754511</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.902281239359891</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
+      <c r="H6" t="n">
+        <v>15.7930565010211</v>
+      </c>
+      <c r="I6" t="n">
+        <v>15.62287270251872</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.1701837985023825</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.9019741320626277</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>2025-03-02</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nlm25x/video/7476844518348754198</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>347</v>
-      </c>
-      <c r="C6" t="n">
+      <c r="B7" t="n">
+        <v>352</v>
+      </c>
+      <c r="C7" t="n">
+        <v>918</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>53</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>#teamwork</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>263.6363636363636</v>
+      </c>
+      <c r="I7" t="n">
+        <v>260.7954545454546</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.840909090909091</v>
+      </c>
+      <c r="L7" t="n">
+        <v>15.05681818181818</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2025-03-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@nlm25x/photo/7473936499608685846</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>441</v>
+      </c>
+      <c r="C8" t="n">
         <v>9</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D8" t="n">
         <v>3</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>1</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Delivery day 📦
 #nanolash #beauty #newproduct #lashes #beautytips #makeuproutine #natural #naturalbeauty</t>
         </is>
       </c>
-      <c r="H6" t="n">
-        <v>3.45821325648415</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.593659942363113</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.8645533141210375</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.2881844380403458</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
+      <c r="H8" t="n">
+        <v>2.72108843537415</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.040816326530612</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.6802721088435374</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.2267573696145125</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
         <is>
           <t>2025-03-01</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@nlm25x/photo/7473936499608685846</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>438</v>
-      </c>
-      <c r="C7" t="n">
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@nlm25x/video/7473821416459128086</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2381</v>
+      </c>
+      <c r="C9" t="n">
         <v>32</v>
       </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
         <v>3</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>🫣🌧️📚🧋🚗
 #ditl #grwm #vlog #dailylife #teacherlife #selfcare #admin #dailyroutine #comewithme #pov</t>
         </is>
       </c>
-      <c r="H7" t="n">
-        <v>7.30593607305936</v>
-      </c>
-      <c r="I7" t="n">
-        <v>7.30593607305936</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.684931506849315</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="H9" t="n">
+        <v>1.343973120537589</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.343973120537589</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.125997480050399</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
         <is>
           <t>2025-02-22</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@nlm25x/video/7473821416459128086</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>2375</v>
-      </c>
-      <c r="C8" t="n">
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@nlm25x/photo/7473533078665841942</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>610</v>
+      </c>
+      <c r="C10" t="n">
         <v>188</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D10" t="n">
         <v>7</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
         <v>5</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Only the best @Sienna X Official 🙂‍↕️💞 Vegan-friendly and instant tanning products which goes on SEAMLESSLY 🤌🏽</t>
         </is>
       </c>
-      <c r="H8" t="n">
-        <v>8.210526315789474</v>
-      </c>
-      <c r="I8" t="n">
-        <v>7.915789473684211</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.2947368421052632</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.2105263157894737</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="H10" t="n">
+        <v>31.9672131147541</v>
+      </c>
+      <c r="I10" t="n">
+        <v>30.81967213114754</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.147540983606557</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.819672131147541</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
         <is>
           <t>2025-02-21</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@nlm25x/photo/7473533078665841942</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>609</v>
-      </c>
-      <c r="C9" t="n">
-        <v>188</v>
-      </c>
-      <c r="D9" t="n">
-        <v>7</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Only the best @Sienna X Official 🙂‍↕️💞 Vegan-friendly and instant tanning products which goes on SEAMLESSLY 🤌🏽</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>32.01970443349754</v>
-      </c>
-      <c r="I9" t="n">
-        <v>30.87027914614121</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1.149425287356322</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.8210180623973727</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>2025-02-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nlm25x/photo/7473501948675722518</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B11" t="n">
         <v>364</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C11" t="n">
         <v>38</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D11" t="n">
         <v>1</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="n">
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="n">
         <v>10.71428571428571</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I11" t="n">
         <v>10.43956043956044</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>0.2747252747252747</v>
       </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>2025-02-20</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nlm25x/video/7473490748353039638</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B12" t="n">
         <v>2417</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C12" t="n">
         <v>82</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>20</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>6</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Digital diaries ftw🙂‍↕️
 #engagement #manifesting #girlsworld #girlssupportgirls #teamwork #content #digitaldiary</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H12" t="n">
         <v>4.220107571369466</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>3.392635498551924</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>0.8274720728175424</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L12" t="n">
         <v>0.2482416218452627</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>2025-02-20</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nlm25x/photo/7473449823190977814</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B13" t="n">
         <v>3960</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C13" t="n">
         <v>535</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D13" t="n">
         <v>12</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>27</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Digital diaries ftw🙂‍↕️
 #engagement #manifesting #girlsworld #girlssupportgirls #teamwork #content #digitaldiary</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H13" t="n">
         <v>13.81313131313131</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I13" t="n">
         <v>13.51010101010101</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>0.303030303030303</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L13" t="n">
         <v>0.6818181818181818</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>2025-02-20</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nlm25x/photo/7473447133727804694</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B14" t="n">
         <v>379</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C14" t="n">
         <v>14</v>
       </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="inlineStr">
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>Hi! 2026 bride here👋🏽 Any experiences and advice would be a massive help 👰🏽‍♀️
 #2026bride #honeymoon #traveltiktok</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H14" t="n">
         <v>3.693931398416887</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I14" t="n">
         <v>3.693931398416887</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2025-02-20</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nlm25x/video/7473440730954894614</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B15" t="n">
         <v>5689</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C15" t="n">
         <v>595</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D15" t="n">
         <v>1</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>4</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Peaceful start to the year 🙂‍↕️</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H15" t="n">
         <v>10.47635788363509</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I15" t="n">
         <v>10.45878010195113</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>0.01757778168395148</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L15" t="n">
         <v>0.07031112673580593</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2025-02-20</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nlm25x/photo/7472774153360116994</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B16" t="n">
         <v>2760</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C16" t="n">
         <v>115</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D16" t="n">
         <v>14</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>11</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>This is one of my favourite quotes that I have saved in my notes. It’s so hard to remember in an emotional moment, life is about perspective.</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H16" t="n">
         <v>4.673913043478261</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I16" t="n">
         <v>4.166666666666666</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>0.5072463768115941</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L16" t="n">
         <v>0.3985507246376812</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2025-02-19</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nlm25x/video/7472769320762838294</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B17" t="n">
         <v>304</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C17" t="n">
         <v>11</v>
       </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>1</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>This is one of my favourite quotes that I have saved in my notes. It’s so hard to remember in an emotional moment, life is about perspective.</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H17" t="n">
         <v>3.618421052631579</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I17" t="n">
         <v>3.618421052631579</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
         <v>0.3289473684210526</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2025-02-18</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nlm25x/photo/7472747456397282562</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B18" t="n">
         <v>7608</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C18" t="n">
         <v>1007</v>
-      </c>
-      <c r="D17" t="n">
-        <v>4</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>73</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Master of Education (pending)🙂‍↕️</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>13.28864353312303</v>
-      </c>
-      <c r="I17" t="n">
-        <v>13.23606729758149</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.05257623554153523</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0.9595162986330178</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>2025-02-18</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@nlm25x/photo/7472486581845118230</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>390</v>
-      </c>
-      <c r="C18" t="n">
-        <v>26</v>
       </c>
       <c r="D18" t="n">
         <v>4</v>
@@ -1327,393 +1327,397 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="inlineStr"/>
+        <v>73</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Master of Education (pending)🙂‍↕️</t>
+        </is>
+      </c>
       <c r="H18" t="n">
+        <v>13.28864353312303</v>
+      </c>
+      <c r="I18" t="n">
+        <v>13.23606729758149</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.05257623554153523</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.9595162986330178</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>2025-02-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@nlm25x/photo/7472486581845118230</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>390</v>
+      </c>
+      <c r="C19" t="n">
+        <v>26</v>
+      </c>
+      <c r="D19" t="n">
+        <v>4</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="n">
         <v>7.692307692307693</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I19" t="n">
         <v>6.666666666666667</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>1.025641025641026</v>
       </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>2025-02-18</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nlm25x/photo/7471948168918273302</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B20" t="n">
         <v>678</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C20" t="n">
         <v>82</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D20" t="n">
         <v>3</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>5</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>🧖🏽‍♀️🧋👜🪞✨
 #teamworkmakesthedreamwork</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H20" t="n">
         <v>12.53687315634218</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I20" t="n">
         <v>12.09439528023599</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>0.4424778761061947</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L20" t="n">
         <v>0.7374631268436578</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2025-02-16</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nlm25x/photo/7471714060476632342</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B21" t="n">
         <v>789</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C21" t="n">
         <v>12</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D21" t="n">
         <v>3</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="inlineStr">
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="inlineStr">
         <is>
           <t>#youngerself</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H21" t="n">
         <v>1.901140684410646</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I21" t="n">
         <v>1.520912547528517</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>0.3802281368821293</v>
       </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>2025-02-16</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nlm25x/photo/7471688971244801282</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B22" t="n">
         <v>7593</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C22" t="n">
         <v>587</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D22" t="n">
         <v>33</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>21</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>What else do I need? Help a girl out
 #teamworkmakesthedreamwork</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H22" t="n">
         <v>8.165415514289478</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I22" t="n">
         <v>7.730804688528909</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>0.434610825760569</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L22" t="n">
         <v>0.2765705254839984</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2025-02-16</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nlm25x/photo/7471575962740706582</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B23" t="n">
         <v>9484</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C23" t="n">
         <v>410</v>
       </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>33</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>From classic Bridget behaviour in public, to iconic Hugh Grant making cocktails for kids, it was certainly the most emotional of them all…</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H23" t="n">
         <v>4.323070434415858</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I23" t="n">
         <v>4.323070434415858</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
         <v>0.3479544495993252</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>2025-02-15</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nlm25x/video/7470627287453699350</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B24" t="n">
         <v>4341</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C24" t="n">
         <v>434</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D24" t="n">
         <v>5</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>5</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>Summer in NYC 🌉</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H24" t="n">
         <v>10.11287721723105</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I24" t="n">
         <v>9.997696383321815</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>0.1151808339092375</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L24" t="n">
         <v>0.1151808339092375</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>2025-02-13</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nlm25x/video/7470614430976396566</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B25" t="n">
         <v>476</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C25" t="n">
         <v>14</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D25" t="n">
         <v>1</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>2</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>Claim it💌
 #manifestation</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H25" t="n">
         <v>3.151260504201681</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I25" t="n">
         <v>2.941176470588235</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>0.2100840336134454</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L25" t="n">
         <v>0.4201680672268908</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>2025-02-13</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nlm25x/photo/7469432742313266465</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B26" t="n">
         <v>8755</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C26" t="n">
         <v>640</v>
-      </c>
-      <c r="D25" t="n">
-        <v>4</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>49</v>
-      </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="n">
-        <v>7.355796687607081</v>
-      </c>
-      <c r="I25" t="n">
-        <v>7.310108509423187</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.04568817818389492</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0.5596801827527128</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>2025-02-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@nlm25x/photo/7466851253738376480</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>807</v>
-      </c>
-      <c r="C26" t="n">
-        <v>35</v>
       </c>
       <c r="D26" t="n">
         <v>4</v>
@@ -1722,302 +1726,298 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
+        <v>49</v>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>7.355796687607081</v>
+      </c>
+      <c r="I26" t="n">
+        <v>7.310108509423187</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.04568817818389492</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.5596801827527128</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>2025-02-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@nlm25x/photo/7466851253738376480</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>807</v>
+      </c>
+      <c r="C27" t="n">
+        <v>35</v>
+      </c>
+      <c r="D27" t="n">
+        <v>4</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>1</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>Thoughts on this years collection? ✨✨✨✨✨✨✨✨✨
 #ugccreator #valentines #outfitinspo</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H27" t="n">
         <v>4.83271375464684</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I27" t="n">
         <v>4.337050805452292</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>0.4956629491945477</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L27" t="n">
         <v>0.1239157372986369</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2025-02-03</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nlm25x/photo/7466841677966232864</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B28" t="n">
         <v>11200</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C28" t="n">
         <v>1672</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D28" t="n">
         <v>21</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>225</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>🍓🥀🥤🌹❣️🍒</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H28" t="n">
         <v>15.11607142857143</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I28" t="n">
         <v>14.92857142857143</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>0.1875</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L28" t="n">
         <v>2.008928571428572</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2025-02-03</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nlm25x/video/7466574004262931745</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B29" t="n">
         <v>14800</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C29" t="n">
         <v>1683</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D29" t="n">
         <v>7</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>164</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>1st Feb feels 💌
 ✨✨✨✨✨✨✨✨✨✨✨✨✨✨
 #selfcare #maturingisrealizing #mind #perspective</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H29" t="n">
         <v>11.41891891891892</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I29" t="n">
         <v>11.37162162162162</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>0.0472972972972973</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L29" t="n">
         <v>1.108108108108108</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>2025-02-02</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nlm25x/photo/7464718300467957024</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B30" t="n">
         <v>7439</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C30" t="n">
         <v>541</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D30" t="n">
         <v>40</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>33</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>Comment if you’re interested 💌
 #ugc #ugccreator #blogger #blog #girlssupportgirls #support</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H30" t="n">
         <v>7.810189541605054</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I30" t="n">
         <v>7.272482860599543</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>0.5377066810055114</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L30" t="n">
         <v>0.443608011829547</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>2025-01-28</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nlm25x/photo/7463249263938620704</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B31" t="n">
         <v>7779</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C31" t="n">
         <v>376</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D31" t="n">
         <v>1</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>105</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>so happy to finally achieve my goal of reading this month 🙂‍↔️ if you have anymore recs, pls drop them below xx</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H31" t="n">
         <v>4.846381282941252</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I31" t="n">
         <v>4.83352616017483</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>0.01285512276642242</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L31" t="n">
         <v>1.349787890474354</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>2025-01-24</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nlm25x/photo/7462645073684057376</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B32" t="n">
         <v>8368</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C32" t="n">
         <v>607</v>
-      </c>
-      <c r="D31" t="n">
-        <v>5</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>6</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>We Tracey beaker’d so hard, I bought a coloured hair strip to go in my hair like Chantelle Wellard and she could genuinely be Layla’s sister 😭</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>7.313575525812619</v>
-      </c>
-      <c r="I31" t="n">
-        <v>7.253824091778202</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.05975143403441683</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0.07170172084130019</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>2025-01-22</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@nlm25x/photo/7459502351569685792</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>8068</v>
-      </c>
-      <c r="C32" t="n">
-        <v>1576</v>
       </c>
       <c r="D32" t="n">
         <v>5</v>
@@ -2026,487 +2026,537 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
+        <v>6</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>We Tracey beaker’d so hard, I bought a coloured hair strip to go in my hair like Chantelle Wellard and she could genuinely be Layla’s sister 😭</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7.313575525812619</v>
+      </c>
+      <c r="I32" t="n">
+        <v>7.253824091778202</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.05975143403441683</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.07170172084130019</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@nlm25x/photo/7459502351569685792</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>8068</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1576</v>
+      </c>
+      <c r="D33" t="n">
+        <v>5</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>40</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>Making it ever so slightly better 🥹🤝🏽
 #mollymae #loveisland #traitors #selfcare #girls</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H33" t="n">
         <v>19.59593455627169</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I33" t="n">
         <v>19.533961328706</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>0.06197322756569162</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L33" t="n">
         <v>0.495785820525533</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>2025-01-14</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nlm25x/photo/7459088541738405152</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B34" t="n">
         <v>7419</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C34" t="n">
         <v>557</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D34" t="n">
         <v>2</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>13</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>I feel like I’m pretty organised and happy with everything so far, but I know there’ll be something I need to do.
 Girls, drop your best tip 📣</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H34" t="n">
         <v>7.534708181695645</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I34" t="n">
         <v>7.507750370669902</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>0.02695781102574471</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L34" t="n">
         <v>0.1752257716673406</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2025-01-13</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nlm25x/video/7458697728017681697</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B35" t="n">
         <v>4251</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C35" t="n">
         <v>660</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D35" t="n">
         <v>2</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>23</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>Week 1 complete 🫶🏽
 So proud of myself for staying on track, practising good habit and surrounding myself with good energy 🙂‍↔️✨</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H35" t="n">
         <v>15.57280639849447</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I35" t="n">
         <v>15.5257586450247</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>0.04704775346977182</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L35" t="n">
         <v>0.5410491649023759</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2025-01-12</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nlm25x/photo/7456500082842668321</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B36" t="n">
         <v>3093</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C36" t="n">
         <v>259</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D36" t="n">
         <v>6</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>20</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>Week 1 complete 🫶🏽
 So proud of myself for staying on track, practising good habit and surrounding myself with good energy 🙂‍↔️✨</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="H36" t="n">
         <v>8.567733591981895</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I36" t="n">
         <v>8.373747171031361</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>0.1939864209505335</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L36" t="n">
         <v>0.6466214031684449</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2025-01-06</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nlm25x/video/7456381375315266848</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B37" t="n">
         <v>8507</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C37" t="n">
         <v>1384</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D37" t="n">
         <v>3</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>136</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>🧘🏽‍♀️📝💡✨🎀🙂‍↔️🌷
 #ugccreator #lifestyle #selfcare</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H37" t="n">
         <v>16.30422005407312</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I37" t="n">
         <v>16.2689549782532</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>0.03526507581991301</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L37" t="n">
         <v>1.59868343716939</v>
       </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>2025-01-05</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nlm25x/video/7456071016360480032</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B38" t="n">
         <v>15900</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C38" t="n">
         <v>3849</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D38" t="n">
         <v>9</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>307</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>2025 mood board ✨</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="H38" t="n">
         <v>24.26415094339623</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I38" t="n">
         <v>24.20754716981132</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>0.05660377358490566</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L38" t="n">
         <v>1.930817610062893</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>2025-01-04</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nlm25x/video/7456036091586465057</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B39" t="n">
         <v>2500</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C39" t="n">
         <v>188</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D39" t="n">
         <v>2</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>1</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>a romantic type of NYE 🙂‍↔️</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="H39" t="n">
         <v>7.6</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I39" t="n">
         <v>7.52</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>0.08</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L39" t="n">
         <v>0.04</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2025-01-04</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nlm25x/photo/7442024111481621792</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B40" t="n">
         <v>3117</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C40" t="n">
         <v>338</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D40" t="n">
         <v>1</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>2</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>a romantic type of NYE 🙂‍↔️</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="H40" t="n">
         <v>10.87584215591915</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I40" t="n">
         <v>10.8437600256657</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>0.03208213025344883</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L40" t="n">
         <v>0.06416426050689766</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>2024-11-28</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nlm25x/video/7351697038419004705</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B41" t="n">
         <v>2553</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C41" t="n">
         <v>291</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D41" t="n">
         <v>2</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>5</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>My best friend forever💫 #fyp</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="H41" t="n">
         <v>11.47669408538974</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I41" t="n">
         <v>11.39835487661575</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>0.07833920877399138</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L41" t="n">
         <v>0.1958480219349785</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>2024-3-29</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nlm25x/video/7263504162749467936</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B42" t="n">
         <v>5371</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C42" t="n">
         <v>1066</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D42" t="n">
         <v>3</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>9</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>🤍</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H42" t="n">
         <v>19.90318376466207</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I42" t="n">
         <v>19.84732824427481</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>0.05585552038726494</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L42" t="n">
         <v>0.1675665611617948</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>2023-8-5</t>
         </is>
